--- a/output/INV-9898EE1.xlsx
+++ b/output/INV-9898EE1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishnasai.g.TECHNOVERT\Documents\UiPath\DocumentProcessing_IntelligentOCR300\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishnasai.g.TECHNOVERT\Documents\UiPath\Invoice Processing\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C45BB7-1A16-4FB7-B464-EE449467EB35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338323F9-CEF6-444B-B905-C1522F777A2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{A2D63895-A0BF-4A5F-B2B4-CDC7A6B56234}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A2D63895-A0BF-4A5F-B2B4-CDC7A6B56234}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceTable - Formatted" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>InvoiceNumber</t>
   </si>
@@ -77,6 +77,58 @@
   </si>
   <si>
     <t>INV-9898EE1</t>
+  </si>
+  <si>
+    <t>Vendor Address</t>
+  </si>
+  <si>
+    <t>Billing Name</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Payment Terms</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Purchase Order Number</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Hyderabad,Telangana,500048 India</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Key,Value_x000D_
+"City","Hyderabad"_x000D_
+"Country","India"_x000D_
+"State / County / Province","Telangana"_x000D_
+"Zip Postal Code","500048"</t>
+  </si>
+  <si>
+    <t>Line Number</t>
+  </si>
+  <si>
+    <t>Item PO Number</t>
   </si>
 </sst>
 </file>
@@ -112,9 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BF84BA-4CF7-4995-A480-D1C9F809828D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -448,8 +503,14 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -463,7 +524,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -484,13 +545,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2523DD-B282-497A-8E0F-40EB5F359DDA}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -503,8 +564,14 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -518,7 +585,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -539,13 +606,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B62E07B-5711-4150-8DCB-2E4740EC63BF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +628,38 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -577,6 +674,21 @@
       </c>
       <c r="E2" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43729</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>30400</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -586,13 +698,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614A8F19-DE39-4A37-8DCF-DCF185EC9E87}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +720,38 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -624,6 +766,21 @@
       </c>
       <c r="E2" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43729</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>30400</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
